--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>570901.1312287254</v>
+        <v>571685.2771667542</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443469</v>
+        <v>18621122.00443467</v>
       </c>
     </row>
     <row r="9">
@@ -665,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -713,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>159.0801288120801</v>
       </c>
       <c r="V2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>205.5178444382804</v>
@@ -738,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -786,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>9.336946277399546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>205.5178444382804</v>
+        <v>114.2571612494427</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>39.82778746869523</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,67 +898,67 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="V5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
+      <c r="W5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S5" t="n">
-        <v>31.15099944008764</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,13 +977,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>81.13095251577731</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>154.2671499223337</v>
       </c>
     </row>
     <row r="7">
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,73 +1132,73 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="C8" t="n">
+      <c r="U8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>205.5178444382804</v>
@@ -1224,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1233,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>187.2746799658192</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>19.84004947482875</v>
       </c>
       <c r="X9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="10">
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="C11" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,28 +1451,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>66.38439726656334</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>46.81577624213776</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1503,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1607,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1628,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>39.76255200930621</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>170.9978162259427</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1865,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,22 +1891,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>190.3453970742849</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1920,31 +1922,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>84.9698609501463</v>
       </c>
       <c r="C18" t="n">
-        <v>77.10752967152196</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -2050,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,26 +2080,26 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
+      <c r="H20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F20" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2162,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2172,16 +2174,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>92.46095676837176</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2223,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>164.2908645372123</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2242,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,11 +2317,11 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
@@ -2330,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2339,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,19 +2362,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2381,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,19 +2399,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>116.7833678227963</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>99.71871235285417</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2418,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2448,7 +2450,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2457,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2515,16 +2517,16 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>241.0142888776591</v>
@@ -2570,13 +2572,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,22 +2599,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>21.85442600983729</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2640,10 +2642,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>113.1682173871407</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2655,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2694,10 +2696,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>63.14223173826446</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,70 +2794,70 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>190.3453970742849</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2880,13 +2882,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="H30" t="n">
-        <v>106.0607039122181</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -2937,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3026,70 +3028,70 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="I32" t="n">
+        <v>52.42556848774763</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>212.285385643442</v>
       </c>
       <c r="X32" t="n">
         <v>241.0142888776591</v>
@@ -3108,28 +3110,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>96.11446174710331</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>37.18582309281555</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3165,16 +3167,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3308,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3317,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3342,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>84.97365353379637</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>127.9331172856529</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -3402,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3411,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3503,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3548,28 +3550,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3591,19 +3593,19 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,13 +3632,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>170.7457531160715</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3648,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>172.6354119143748</v>
       </c>
     </row>
     <row r="40">
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,70 +3745,70 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>169.0708280266249</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="F41" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="G41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>104.1252322629233</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3828,10 +3830,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3867,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>205.5178444382804</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>21.16030022554286</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4053,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>105.6477946131965</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4107,10 +4109,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4122,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>46.75281614456514</v>
       </c>
     </row>
     <row r="46">
@@ -4183,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>199.2900309704538</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="C2" t="n">
-        <v>199.2900309704538</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="D2" t="n">
-        <v>199.2900309704538</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="E2" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="F2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4349,31 +4351,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="V2" t="n">
-        <v>614.4775954922324</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="W2" t="n">
-        <v>614.4775954922324</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="X2" t="n">
-        <v>406.8838132313431</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="Y2" t="n">
-        <v>199.2900309704538</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.44142755506243</v>
+        <v>499.0663215028962</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E3" t="n">
         <v>16.44142755506243</v>
@@ -4410,22 +4412,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>163.1080096386462</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4434,25 +4436,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V3" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W3" t="n">
-        <v>224.0352098159517</v>
+        <v>706.6601037637855</v>
       </c>
       <c r="X3" t="n">
-        <v>224.0352098159517</v>
+        <v>706.6601037637855</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.44142755506243</v>
+        <v>499.0663215028962</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="J4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4589,28 +4591,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R5" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S5" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T5" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U5" t="n">
         <v>639.2227743377304</v>
       </c>
       <c r="V5" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W5" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X5" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y5" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>272.8449139228332</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="C6" t="n">
-        <v>98.39188464170618</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E6" t="n">
         <v>16.44142755506243</v>
@@ -4653,13 +4655,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>435.9652341458732</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P6" t="n">
         <v>822.0713777531216</v>
@@ -4689,7 +4691,7 @@
         <v>648.6540332037905</v>
       </c>
       <c r="Y6" t="n">
-        <v>441.0602509429012</v>
+        <v>492.8286292418372</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G7" t="n">
         <v>16.44142755506243</v>
@@ -4741,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E8" t="n">
         <v>16.44142755506243</v>
@@ -4811,13 +4813,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4832,22 +4834,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X8" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>155.9263856252326</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>155.9263856252326</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>155.9263856252326</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>155.9263856252326</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>155.9263856252326</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>163.1080096386462</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M9" t="n">
-        <v>163.1080096386462</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P9" t="n">
         <v>752.6768192397923</v>
@@ -4905,28 +4907,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>720.9018483060073</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U9" t="n">
-        <v>720.9018483060073</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V9" t="n">
-        <v>531.7355049061899</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W9" t="n">
-        <v>531.7355049061899</v>
+        <v>599.8443290969091</v>
       </c>
       <c r="X9" t="n">
-        <v>324.1417226453007</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="Y9" t="n">
-        <v>324.1417226453007</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="10">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="C11" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="D11" t="n">
+        <v>614.4775954922324</v>
+      </c>
+      <c r="E11" t="n">
         <v>406.8838132313431</v>
       </c>
-      <c r="C11" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="D11" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="E11" t="n">
-        <v>16.44142755506243</v>
-      </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G11" t="n">
         <v>16.44142755506243</v>
@@ -5081,10 +5083,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X11" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y11" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="12">
@@ -5097,25 +5099,25 @@
         <v>406.8838132313431</v>
       </c>
       <c r="C12" t="n">
-        <v>232.4307839502161</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D12" t="n">
-        <v>83.4963742889648</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5127,7 +5129,7 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>366.5706756325438</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N12" t="n">
         <v>366.5706756325438</v>
@@ -5151,10 +5153,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W12" t="n">
         <v>614.4775954922324</v>
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I13" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5215,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>431.628992076841</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="C14" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="D14" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="E14" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="F14" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G14" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5291,7 +5293,7 @@
         <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5303,25 +5305,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W14" t="n">
-        <v>639.2227743377304</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="X14" t="n">
-        <v>639.2227743377304</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="Y14" t="n">
-        <v>431.628992076841</v>
+        <v>236.1051990630351</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>340.5829991502264</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C15" t="n">
-        <v>166.1299698690994</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D15" t="n">
-        <v>17.19556020784815</v>
+        <v>574.3134015434382</v>
       </c>
       <c r="E15" t="n">
-        <v>17.19556020784815</v>
+        <v>415.0759465379826</v>
       </c>
       <c r="F15" t="n">
-        <v>17.19556020784815</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="G15" t="n">
-        <v>17.19556020784815</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3667595428576</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O15" t="n">
-        <v>626.8294255367553</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>548.1767814111157</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>548.1767814111157</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>548.1767814111157</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>548.1767814111157</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>548.1767814111157</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>340.5829991502264</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="16">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5539,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>761.6974622895962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>518.2486856454962</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>756.2968567456824</v>
+        <v>569.2991849246828</v>
       </c>
       <c r="C18" t="n">
-        <v>678.4104631380844</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="D18" t="n">
-        <v>529.4760534768332</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="E18" t="n">
-        <v>370.2385984713777</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="F18" t="n">
-        <v>223.7040404982626</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,7 +5600,7 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>234.810827406191</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
         <v>234.810827406191</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y18" t="n">
-        <v>756.2968567456824</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="19">
@@ -5698,16 +5700,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C20" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D20" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E20" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5795,7 +5797,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>528.7219208240474</v>
+        <v>593.6552238493341</v>
       </c>
       <c r="C21" t="n">
-        <v>528.7219208240474</v>
+        <v>419.2021945682071</v>
       </c>
       <c r="D21" t="n">
-        <v>528.7219208240474</v>
+        <v>419.2021945682071</v>
       </c>
       <c r="E21" t="n">
-        <v>369.484465818592</v>
+        <v>259.9647395627516</v>
       </c>
       <c r="F21" t="n">
-        <v>222.9499078454769</v>
+        <v>113.4301815896366</v>
       </c>
       <c r="G21" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,16 +5837,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V21" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W21" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X21" t="n">
-        <v>696.9372578441155</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y21" t="n">
-        <v>696.9372578441155</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="22">
@@ -5884,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
         <v>19.28114311021272</v>
@@ -5944,16 +5946,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U23" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>582.8795121963512</v>
+        <v>137.2441409110171</v>
       </c>
       <c r="C24" t="n">
-        <v>408.4264829152243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>259.492073253973</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6096,22 +6098,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V24" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W24" t="n">
-        <v>790.6398109613051</v>
+        <v>345.004439675971</v>
       </c>
       <c r="X24" t="n">
-        <v>790.6398109613051</v>
+        <v>345.004439675971</v>
       </c>
       <c r="Y24" t="n">
-        <v>582.8795121963512</v>
+        <v>137.2441409110171</v>
       </c>
     </row>
     <row r="25">
@@ -6163,13 +6165,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>485.167420504237</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C26" t="n">
-        <v>241.7186438601369</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D26" t="n">
-        <v>241.7186438601369</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E26" t="n">
-        <v>241.7186438601369</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F26" t="n">
-        <v>241.7186438601369</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G26" t="n">
-        <v>241.7186438601369</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>728.6161971483371</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="U26" t="n">
-        <v>728.6161971483371</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="V26" t="n">
-        <v>728.6161971483371</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="W26" t="n">
-        <v>728.6161971483371</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="X26" t="n">
-        <v>728.6161971483371</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="Y26" t="n">
-        <v>728.6161971483371</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.03527576299844</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>133.5924738042943</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6312,13 +6314,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>562.4161926976942</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>327.2640844659515</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>83.81530782185143</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X27" t="n">
-        <v>20.03527576299844</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y27" t="n">
-        <v>20.03527576299844</v>
+        <v>292.8299288097498</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>761.6974622895962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>761.6974622895962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>761.6974622895962</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>411.6785506544679</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C30" t="n">
-        <v>411.6785506544679</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D30" t="n">
-        <v>411.6785506544679</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E30" t="n">
-        <v>411.6785506544679</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="F30" t="n">
-        <v>265.1439926813529</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="G30" t="n">
-        <v>126.4131672639684</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6546,46 +6548,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V30" t="n">
-        <v>862.8876260635219</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W30" t="n">
-        <v>619.4388494194218</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X30" t="n">
-        <v>619.4388494194218</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y30" t="n">
-        <v>411.6785506544679</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="31">
@@ -6643,10 +6645,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
         <v>19.28114311021272</v>
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>459.5201808117111</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C33" t="n">
-        <v>459.5201808117111</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D33" t="n">
-        <v>459.5201808117111</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>459.5201808117111</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,46 +6785,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>926.4957180431458</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>926.4957180431458</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>926.4957180431458</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>926.4957180431458</v>
       </c>
       <c r="V33" t="n">
-        <v>627.7355178317791</v>
+        <v>926.4957180431458</v>
       </c>
       <c r="W33" t="n">
-        <v>627.7355178317791</v>
+        <v>926.4957180431458</v>
       </c>
       <c r="X33" t="n">
-        <v>627.7355178317791</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y33" t="n">
-        <v>627.7355178317791</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6956,16 +6958,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
         <v>749.627473042513</v>
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>352.9294114938717</v>
+        <v>878.2251822441752</v>
       </c>
       <c r="C36" t="n">
-        <v>352.9294114938717</v>
+        <v>703.7721529630483</v>
       </c>
       <c r="D36" t="n">
-        <v>352.9294114938717</v>
+        <v>554.837743301797</v>
       </c>
       <c r="E36" t="n">
-        <v>352.9294114938717</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="F36" t="n">
-        <v>352.9294114938717</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H36" t="n">
         <v>110.334904905842</v>
@@ -7020,13 +7022,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>487.8483949674443</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
         <v>712.019119383956</v>
@@ -7050,16 +7052,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y36" t="n">
-        <v>521.1447485139397</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="37">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7198,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7260,7 +7262,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
         <v>725.4530095217538</v>
@@ -7278,25 +7280,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>690.4171683705204</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>690.4171683705204</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U39" t="n">
-        <v>462.1935501069094</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V39" t="n">
-        <v>227.0414418751666</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W39" t="n">
-        <v>227.0414418751666</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="X39" t="n">
-        <v>227.0414418751666</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>279.9389693285341</v>
       </c>
     </row>
     <row r="40">
@@ -7360,13 +7362,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C41" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D41" t="n">
-        <v>651.2927635848137</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E41" t="n">
-        <v>443.6989813239244</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F41" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
@@ -7454,7 +7456,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Y41" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>301.706810945562</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>301.706810945562</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>301.706810945562</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>301.706810945562</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
         <v>16.44142755506243</v>
@@ -7494,19 +7496,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
+        <v>16.44142755506243</v>
+      </c>
+      <c r="M42" t="n">
         <v>219.90409354896</v>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>423.3667595428576</v>
       </c>
-      <c r="N42" t="n">
-        <v>618.608711759224</v>
-      </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7515,25 +7517,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>31.27987404077794</v>
       </c>
     </row>
     <row r="43">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>431.628992076841</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="C44" t="n">
-        <v>431.628992076841</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="D44" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="G44" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7670,28 +7672,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T44" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U44" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V44" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W44" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X44" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y44" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
     </row>
     <row r="45">
@@ -7701,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>272.8449139228332</v>
+        <v>191.6485894889752</v>
       </c>
       <c r="C45" t="n">
-        <v>166.1299698690994</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D45" t="n">
         <v>17.19556020784815</v>
@@ -7728,22 +7730,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N45" t="n">
-        <v>570.0333416264414</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7755,22 +7757,22 @@
         <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U45" t="n">
-        <v>648.6540332037905</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="V45" t="n">
-        <v>648.6540332037905</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="W45" t="n">
-        <v>648.6540332037905</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="X45" t="n">
-        <v>648.6540332037905</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="Y45" t="n">
-        <v>441.0602509429012</v>
+        <v>191.6485894889752</v>
       </c>
     </row>
     <row r="46">
@@ -7831,16 +7833,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
         <v>16.44142755506243</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,16 +8303,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>233.7538122443171</v>
+        <v>212.7243290316435</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8459,16 +8461,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>160.0786444523452</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
@@ -8547,7 +8549,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>261.0929869123474</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8775,10 +8777,10 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>163.6582985944894</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -8939,10 +8941,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>346.8797879011645</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,13 +9008,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>336.8595565216137</v>
@@ -9021,10 +9023,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>261.0929869123474</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,10 +9248,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>229.6373335557741</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9483,19 +9485,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9717,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,16 +9962,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O27" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10194,7 +10196,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,22 +10433,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N33" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,16 +10670,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>369.031319612638</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10908,10 +10910,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N39" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11142,22 +11144,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>328.5558052311782</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
@@ -11385,16 +11387,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>152.8659767558044</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22553,10 +22555,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>200.9102526910243</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22568,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22601,16 +22603,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>92.2655240957564</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>180.7200942177732</v>
@@ -22626,13 +22628,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22674,19 +22676,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>216.6044358035753</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>46.1771387226392</v>
+        <v>137.4378219114769</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22723,10 +22725,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>115.6226874585631</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22784,10 +22786,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22829,22 +22831,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>177.8690701461577</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>70.32553552659914</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22863,13 +22865,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>66.31411304886144</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22929,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>51.41554585497065</v>
       </c>
     </row>
     <row r="7">
@@ -22954,7 +22956,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>201.7137242822432</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23072,10 +23074,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23084,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
         <v>180.7200942177732</v>
@@ -23112,7 +23114,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23121,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>45.52590718360608</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>231.8549336860908</v>
       </c>
       <c r="X9" t="n">
         <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -23255,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E11" t="n">
         <v>176.4125256339814</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>234.2826201338976</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23321,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23337,28 +23339,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>91.2606831888376</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>98.25343615124612</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23391,13 +23393,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23495,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23516,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>27.99995220500799</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23552,16 +23554,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>180.1701406907881</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y14" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23574,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>107.6825135553325</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>29.16691246887893</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23753,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>32.75045248984648</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23808,31 +23810,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>81.56332269972104</v>
       </c>
       <c r="C18" t="n">
-        <v>95.60096931679378</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23938,7 +23940,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23950,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>194.5906600982693</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="21">
@@ -24048,7 +24050,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24060,16 +24062,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>44.88256039483888</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24111,7 +24113,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>41.48212066626513</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24130,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24184,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24218,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24227,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24269,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>195.8925415817689</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24285,19 +24287,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>55.92513116551942</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>57.92636810254677</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24306,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24336,7 +24338,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24345,7 +24347,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24403,16 +24405,16 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>93.55107118671071</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>124.2586028933485</v>
@@ -24458,13 +24460,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>119.2616763733422</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,22 +24487,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>201.2414235542941</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24528,10 +24530,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>31.90099500624314</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24543,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,7 +24572,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24582,10 +24584,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>142.630753465213</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24680,16 +24682,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24701,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,19 +24733,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>137.40686139585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24768,13 +24770,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>101.9362516896722</v>
       </c>
       <c r="H30" t="n">
-        <v>6.174740324278375</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24804,19 +24806,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24825,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24883,13 +24885,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,16 +24928,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>158.0503210826583</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,10 +24961,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24977,7 +24979,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>128.71681180081</v>
@@ -24996,28 +24998,28 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>48.95475064628057</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>62.97201105982758</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25053,16 +25055,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25129,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25205,10 +25207,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U35" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25230,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>81.55953011607097</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>9.410399877557694</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25290,7 +25292,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25299,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25391,13 +25393,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25454,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>267.3928735857801</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25479,19 +25481,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,13 +25520,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0.9374179877663096</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25536,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>33.04728386292959</v>
       </c>
     </row>
     <row r="40">
@@ -25600,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25631,16 +25633,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>185.6122135940581</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E41" t="n">
         <v>176.4125256339814</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>225.855928360474</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25649,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>62.40795138694406</v>
+        <v>151.843121629009</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25716,10 +25718,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25755,10 +25757,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25880,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>168.4453839490745</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25919,10 +25921,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>230.1853526822936</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25941,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>67.06070437511929</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25995,10 +25997,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26010,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>158.9298796327392</v>
       </c>
     </row>
     <row r="46">
@@ -26071,7 +26073,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>449813.3358977402</v>
+        <v>449813.3358977401</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>449813.3358977403</v>
+        <v>449813.3358977402</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>473796.0964945849</v>
+        <v>473796.0964945848</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>473796.0964945849</v>
+        <v>473796.0964945848</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>473796.0964945849</v>
+        <v>473796.0964945848</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>473796.0964945848</v>
+        <v>473796.0964945847</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>449813.3358977401</v>
+        <v>449813.3358977402</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>449813.3358977401</v>
+        <v>449813.3358977403</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>134093.9955596918</v>
+        <v>134093.9955596919</v>
       </c>
       <c r="C2" t="n">
         <v>134093.9955596919</v>
       </c>
       <c r="D2" t="n">
-        <v>134093.9955596918</v>
+        <v>134093.9955596919</v>
       </c>
       <c r="E2" t="n">
         <v>134093.9955596919</v>
       </c>
       <c r="F2" t="n">
-        <v>134093.9955596919</v>
+        <v>134093.9955596918</v>
       </c>
       <c r="G2" t="n">
         <v>141236.5716516325</v>
@@ -26335,7 +26337,7 @@
         <v>141236.5716516325</v>
       </c>
       <c r="J2" t="n">
-        <v>141236.5716516326</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="K2" t="n">
         <v>141236.5716516325</v>
@@ -26344,7 +26346,7 @@
         <v>141236.5716516325</v>
       </c>
       <c r="M2" t="n">
-        <v>141236.5716516325</v>
+        <v>141236.5716516326</v>
       </c>
       <c r="N2" t="n">
         <v>141236.5716516325</v>
@@ -26418,16 +26420,16 @@
         <v>31909.39659410429</v>
       </c>
       <c r="C4" t="n">
-        <v>31909.3965941043</v>
+        <v>31909.39659410429</v>
       </c>
       <c r="D4" t="n">
-        <v>31909.3965941043</v>
+        <v>31909.39659410429</v>
       </c>
       <c r="E4" t="n">
         <v>31909.3965941043</v>
       </c>
       <c r="F4" t="n">
-        <v>31909.3965941043</v>
+        <v>31909.39659410429</v>
       </c>
       <c r="G4" t="n">
         <v>33649.84678425771</v>
@@ -26439,22 +26441,22 @@
         <v>33649.84678425771</v>
       </c>
       <c r="J4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="K4" t="n">
         <v>33649.84678425771</v>
       </c>
       <c r="L4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="M4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="N4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="O4" t="n">
-        <v>31909.39659410429</v>
+        <v>31909.3965941043</v>
       </c>
       <c r="P4" t="n">
         <v>31909.3965941043</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12812.24255794975</v>
+        <v>-12812.24255794972</v>
       </c>
       <c r="C6" t="n">
-        <v>56061.51402374012</v>
+        <v>56061.51402374014</v>
       </c>
       <c r="D6" t="n">
-        <v>56061.51402374009</v>
+        <v>56061.51402374017</v>
       </c>
       <c r="E6" t="n">
-        <v>89689.11402374017</v>
+        <v>89689.11402374014</v>
       </c>
       <c r="F6" t="n">
-        <v>89689.11402374014</v>
+        <v>89689.11402374008</v>
       </c>
       <c r="G6" t="n">
-        <v>83204.01312944604</v>
+        <v>83204.01312944602</v>
       </c>
       <c r="H6" t="n">
+        <v>92933.05610361314</v>
+      </c>
+      <c r="I6" t="n">
+        <v>92933.05610361311</v>
+      </c>
+      <c r="J6" t="n">
+        <v>39160.5452134037</v>
+      </c>
+      <c r="K6" t="n">
         <v>92933.05610361317</v>
-      </c>
-      <c r="I6" t="n">
-        <v>92933.05610361314</v>
-      </c>
-      <c r="J6" t="n">
-        <v>39160.54521340378</v>
-      </c>
-      <c r="K6" t="n">
-        <v>92933.05610361314</v>
       </c>
       <c r="L6" t="n">
         <v>92933.05610361314</v>
       </c>
       <c r="M6" t="n">
-        <v>92933.05610361314</v>
+        <v>92933.0561036132</v>
       </c>
       <c r="N6" t="n">
         <v>92933.05610361314</v>
       </c>
       <c r="O6" t="n">
-        <v>89689.11402374011</v>
+        <v>89689.11402374014</v>
       </c>
       <c r="P6" t="n">
         <v>89689.11402374014</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,16 +35023,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>91.61977832229879</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35179,16 +35181,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
@@ -35267,7 +35269,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>127.1185794980172</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35495,10 +35497,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>21.52426467247106</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35659,10 +35661,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>116.7815764794778</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>205.5178444382804</v>
@@ -35741,10 +35743,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>127.1185794980172</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,10 +35968,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
         <v>91.0829537758999</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -36203,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,16 +36682,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N27" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37081,7 +37083,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
         <v>90.5657124162131</v>
@@ -37151,22 +37153,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N33" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>226.4350751681936</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37628,10 +37630,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37862,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
@@ -38105,16 +38107,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>21.52426467247106</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>571685.2771667542</v>
+        <v>467452.7789033112</v>
       </c>
     </row>
     <row r="7">
@@ -667,67 +667,67 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F2" t="n">
+      <c r="W2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>159.0801288120801</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="3">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>48.32160706581265</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>114.2571612494427</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y3" t="n">
         <v>205.5178444382804</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.82778746869523</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -940,25 +940,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U5" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>205.5178444382804</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>186.3732331246961</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y6" t="n">
-        <v>154.2671499223337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1068,49 +1068,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>19.84004947482875</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>80.86228322859426</v>
       </c>
     </row>
     <row r="10">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1369,76 +1369,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>21.16030022554292</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E11" t="n">
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="F11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="G11" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1460,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>46.81577624213776</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1508,10 +1508,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1624,40 +1624,40 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="W14" t="n">
-        <v>169.0708280266249</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
     </row>
     <row r="15">
@@ -1688,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>39.76255200930621</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1751,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.5178444382804</v>
+        <v>106.9471343381644</v>
       </c>
     </row>
     <row r="16">
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>102.3382270926889</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="18">
@@ -1922,22 +1922,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>84.9698609501463</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>99.95068065447326</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2092,64 +2092,64 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>92.46095676837176</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2213,22 +2213,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="22">
@@ -2244,64 +2244,64 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>94.41048699370604</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2396,22 +2396,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>75.98437144330408</v>
       </c>
       <c r="C24" t="n">
-        <v>116.7833678227963</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2459,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,31 +2554,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>21.85442600983729</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
     </row>
     <row r="27">
@@ -2642,10 +2642,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>113.1682173871407</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2681,25 +2681,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>189.6723709928539</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2712,70 +2712,70 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2836,28 +2836,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2924,22 +2924,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>56.91690033700354</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2991,16 +2991,16 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3040,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.18582309281555</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3164,13 +3164,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>56.91690033700354</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3189,58 +3189,58 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>202.2946864288972</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3344,31 +3344,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>84.97365353379637</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>29.8892983910557</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,76 +3502,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3593,19 +3593,19 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>172.6354119143748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,55 +3745,55 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>171.0294181666926</v>
+      </c>
+      <c r="I41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E41" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F41" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>14.69006202085835</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,16 +3869,16 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>68.78467314474101</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
         <v>205.5178444382804</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H44" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -4118,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>186.3732331246961</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
-        <v>46.75281614456514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C2" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D2" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4345,37 +4345,37 @@
         <v>706.4576170384386</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>651.2927635848137</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W2" t="n">
-        <v>651.2927635848137</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X2" t="n">
-        <v>651.2927635848137</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y2" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>499.0663215028962</v>
+        <v>65.2511316619439</v>
       </c>
       <c r="C3" t="n">
-        <v>324.6132922217692</v>
+        <v>65.2511316619439</v>
       </c>
       <c r="D3" t="n">
-        <v>175.6788825605179</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
         <v>16.44142755506243</v>
@@ -4418,16 +4418,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N3" t="n">
-        <v>752.1869855945927</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O3" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4436,25 +4436,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T3" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U3" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V3" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="W3" t="n">
-        <v>706.6601037637855</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="X3" t="n">
-        <v>706.6601037637855</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="Y3" t="n">
-        <v>499.0663215028962</v>
+        <v>233.4664686820119</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
         <v>16.44142755506243</v>
@@ -4521,19 +4521,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4573,37 +4573,37 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U5" t="n">
-        <v>639.2227743377304</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="V5" t="n">
-        <v>431.628992076841</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="W5" t="n">
         <v>224.0352098159517</v>
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>324.6132922217692</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>324.6132922217692</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>175.6788825605179</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
         <v>16.44142755506243</v>
@@ -4655,7 +4655,7 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>415.1460457653264</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
         <v>618.608711759224</v>
@@ -4673,25 +4673,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>648.6540332037905</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U6" t="n">
-        <v>648.6540332037905</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V6" t="n">
-        <v>648.6540332037905</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="W6" t="n">
-        <v>648.6540332037905</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X6" t="n">
-        <v>648.6540332037905</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y6" t="n">
-        <v>492.8286292418372</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
         <v>16.44142755506243</v>
@@ -4758,19 +4758,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="E8" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="G8" t="n">
         <v>16.44142755506243</v>
@@ -4810,46 +4810,46 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T8" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U8" t="n">
-        <v>431.628992076841</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V8" t="n">
-        <v>431.628992076841</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W8" t="n">
-        <v>431.628992076841</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X8" t="n">
-        <v>224.0352098159517</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y8" t="n">
-        <v>16.44142755506243</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M9" t="n">
-        <v>219.90409354896</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N9" t="n">
-        <v>423.3667595428576</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O9" t="n">
-        <v>626.8294255367553</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
         <v>752.6768192397923</v>
@@ -4907,28 +4907,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T9" t="n">
-        <v>619.8847831118876</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U9" t="n">
-        <v>619.8847831118876</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V9" t="n">
-        <v>619.8847831118876</v>
+        <v>513.308066045118</v>
       </c>
       <c r="W9" t="n">
-        <v>599.8443290969091</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="X9" t="n">
-        <v>392.2505468360198</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="Y9" t="n">
-        <v>184.6567645751305</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>822.0713777531216</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="C11" t="n">
-        <v>822.0713777531216</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="D11" t="n">
-        <v>614.4775954922324</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="E11" t="n">
-        <v>406.8838132313431</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="F11" t="n">
-        <v>199.2900309704538</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5044,49 +5044,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y11" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5126,19 +5126,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M12" t="n">
         <v>345.2616536067974</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5156,16 +5156,16 @@
         <v>614.4775954922324</v>
       </c>
       <c r="V12" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W12" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X12" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y12" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5223,28 +5223,28 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C14" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D14" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5299,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V14" t="n">
-        <v>614.4775954922324</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="W14" t="n">
-        <v>443.6989813239244</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="X14" t="n">
-        <v>236.1051990630351</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="Y14" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>614.4775954922324</v>
+        <v>304.2635924286101</v>
       </c>
       <c r="C15" t="n">
-        <v>614.4775954922324</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="D15" t="n">
-        <v>574.3134015434382</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="E15" t="n">
-        <v>415.0759465379826</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="F15" t="n">
-        <v>268.5413885648676</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="G15" t="n">
         <v>129.8105631474831</v>
@@ -5369,10 +5369,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="N15" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
-        <v>752.1869855945927</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
         <v>822.0713777531216</v>
@@ -5387,22 +5387,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="Y15" t="n">
-        <v>614.4775954922324</v>
+        <v>304.2635924286101</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5475,13 +5475,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5542,22 +5542,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
         <v>19.28114311021272</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>569.2991849246828</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="C18" t="n">
-        <v>394.8461556435558</v>
+        <v>259.2693145670932</v>
       </c>
       <c r="D18" t="n">
-        <v>394.8461556435558</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E18" t="n">
-        <v>394.8461556435558</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F18" t="n">
-        <v>248.3115976704407</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G18" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>862.8876260635219</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V18" t="n">
-        <v>862.8876260635219</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W18" t="n">
-        <v>862.8876260635219</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X18" t="n">
-        <v>862.8876260635219</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y18" t="n">
-        <v>655.1273272985679</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="19">
@@ -5709,7 +5709,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>593.6552238493341</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>419.2021945682071</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>419.2021945682071</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>259.9647395627516</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>113.4301815896366</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5840,16 +5840,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5861,22 +5861,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>761.8705608694022</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>761.8705608694022</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>761.8705608694022</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y21" t="n">
-        <v>761.8705608694022</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
         <v>19.28114311021272</v>
@@ -5949,13 +5949,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
         <v>262.7299197543128</v>
@@ -6016,25 +6016,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>601.5428246748836</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>506.1786963984129</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>137.2441409110171</v>
+        <v>612.718391167419</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6074,46 +6074,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U24" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V24" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W24" t="n">
-        <v>345.004439675971</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X24" t="n">
-        <v>345.004439675971</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y24" t="n">
-        <v>137.2441409110171</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="25">
@@ -6165,25 +6165,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6256,22 +6256,22 @@
         <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>730.8505943024719</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U26" t="n">
-        <v>730.8505943024719</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V26" t="n">
-        <v>487.4018176583718</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W26" t="n">
-        <v>487.4018176583718</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X26" t="n">
-        <v>487.4018176583718</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y26" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>292.8299288097498</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>292.8299288097498</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>292.8299288097498</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>133.5924738042943</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
         <v>19.28114311021272</v>
@@ -6308,49 +6308,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W27" t="n">
-        <v>500.6814290152826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X27" t="n">
-        <v>292.8299288097498</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>292.8299288097498</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X29" t="n">
-        <v>19.28114311021272</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>742.8341567219593</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6548,16 +6548,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6572,22 +6572,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>298.4948343740486</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W30" t="n">
-        <v>55.04605772994853</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X30" t="n">
-        <v>55.04605772994853</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6639,13 +6639,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S31" t="n">
         <v>19.28114311021272</v>
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6727,25 +6727,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>802.5825927271064</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T32" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U32" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6755,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>342.668582052591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
         <v>19.28114311021272</v>
@@ -6785,46 +6785,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>926.4957180431458</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>926.4957180431458</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>926.4957180431458</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>926.4957180431458</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>926.4957180431458</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W33" t="n">
-        <v>926.4957180431458</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X33" t="n">
-        <v>718.6442178376129</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>510.883919072659</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6964,25 +6964,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>878.2251822441752</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>703.7721529630483</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>554.837743301797</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>395.6002882963414</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>249.0657303232264</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7022,19 +7022,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y36" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>22.57944215788615</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>279.9389693285341</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C39" t="n">
-        <v>279.9389693285341</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>279.9389693285341</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>279.9389693285341</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7259,16 +7259,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>454.3181732824481</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>454.3181732824481</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>454.3181732824481</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>279.9389693285341</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="40">
@@ -7362,13 +7362,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>614.4775954922324</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C41" t="n">
-        <v>614.4775954922324</v>
+        <v>396.792197863116</v>
       </c>
       <c r="D41" t="n">
-        <v>406.8838132313431</v>
+        <v>396.792197863116</v>
       </c>
       <c r="E41" t="n">
-        <v>199.2900309704538</v>
+        <v>396.792197863116</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>396.792197863116</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>396.792197863116</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I41" t="n">
         <v>16.44142755506243</v>
@@ -7414,13 +7414,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
         <v>583.2163723184226</v>
@@ -7432,31 +7432,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>396.792197863116</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>396.792197863116</v>
       </c>
       <c r="V41" t="n">
-        <v>822.0713777531216</v>
+        <v>396.792197863116</v>
       </c>
       <c r="W41" t="n">
-        <v>822.0713777531216</v>
+        <v>396.792197863116</v>
       </c>
       <c r="X41" t="n">
-        <v>822.0713777531216</v>
+        <v>396.792197863116</v>
       </c>
       <c r="Y41" t="n">
-        <v>614.4775954922324</v>
+        <v>396.792197863116</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H42" t="n">
         <v>16.44142755506243</v>
@@ -7493,22 +7493,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>219.90409354896</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3667595428576</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O42" t="n">
-        <v>626.8294255367553</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P42" t="n">
-        <v>809.472903150106</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7517,25 +7517,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>446.4674385625565</v>
+        <v>752.5919099301509</v>
       </c>
       <c r="U42" t="n">
-        <v>446.4674385625565</v>
+        <v>544.9981276692616</v>
       </c>
       <c r="V42" t="n">
-        <v>446.4674385625565</v>
+        <v>337.4043454083724</v>
       </c>
       <c r="W42" t="n">
-        <v>238.8736563016672</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="X42" t="n">
-        <v>238.8736563016672</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="Y42" t="n">
-        <v>31.27987404077794</v>
+        <v>129.8105631474831</v>
       </c>
     </row>
     <row r="43">
@@ -7602,7 +7602,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
         <v>16.44142755506243</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>189.1984156022267</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C44" t="n">
-        <v>189.1984156022267</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D44" t="n">
-        <v>189.1984156022267</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E44" t="n">
-        <v>189.1984156022267</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>189.1984156022267</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7660,7 +7660,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
         <v>732.4113224610707</v>
@@ -7669,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W44" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X44" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.792197863116</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="45">
@@ -7703,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>191.6485894889752</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M45" t="n">
-        <v>423.3667595428576</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N45" t="n">
         <v>435.9652341458732</v>
@@ -7754,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>446.4674385625565</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U45" t="n">
-        <v>238.8736563016672</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V45" t="n">
-        <v>238.8736563016672</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="W45" t="n">
-        <v>238.8736563016672</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X45" t="n">
-        <v>238.8736563016672</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y45" t="n">
-        <v>191.6485894889752</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E46" t="n">
         <v>16.44142755506243</v>
@@ -7845,13 +7845,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
   </sheetData>
@@ -7993,10 +7993,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>256.3140754849514</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8066,19 +8066,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>383.7408211888696</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
@@ -8230,10 +8230,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8303,10 +8303,10 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>212.7243290316435</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>336.8595565216137</v>
+        <v>201.9320071929585</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
@@ -8458,7 +8458,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M8" t="n">
         <v>435.8640776655532</v>
@@ -8467,10 +8467,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
@@ -8549,7 +8549,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>261.0929869123474</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8704,10 +8704,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8774,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>152.8659767558044</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9017,13 +9017,13 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>204.5647025239554</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9245,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9488,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>368.5691090902119</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,22 +9722,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10196,7 +10196,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10205,10 +10205,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10433,13 +10433,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>233.2169876979182</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,22 +10670,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O36" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10907,10 +10907,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M39" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10919,7 +10919,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11062,16 +11062,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11153,13 +11153,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.7075060082595</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11308,10 +11308,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O44" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11378,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>230.174158102173</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>144.0674440055713</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -22555,10 +22555,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22603,19 +22603,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>92.2655240957564</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>205.2178212748161</v>
       </c>
     </row>
     <row r="3">
@@ -22625,16 +22625,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>99.1234584988261</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22676,7 +22676,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22688,10 +22688,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>137.4378219114769</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y3" t="n">
         <v>0.1648513390239543</v>
@@ -22725,10 +22725,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.6226874585631</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22828,25 +22828,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U5" t="n">
-        <v>70.32553552659914</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V5" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>143.7231242791326</v>
+        <v>328.0806684918701</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22862,16 +22862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22913,25 +22913,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>65.32175003622348</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
-        <v>51.41554585497065</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22956,7 +22956,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -22998,7 +22998,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,10 +23032,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>394.1424372895921</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>42.075732182894</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U8" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>231.8549336860908</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
         <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>124.8204125487101</v>
       </c>
     </row>
     <row r="10">
@@ -23181,7 +23181,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>234.2826201338976</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>189.315589344863</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23302,10 +23302,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23320,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23348,19 +23348,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>98.25343615124612</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23396,10 +23396,10 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>70.67486577968216</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23512,13 +23512,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,13 +23539,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23557,13 +23557,13 @@
         <v>122.2344140318545</v>
       </c>
       <c r="W14" t="n">
-        <v>180.1701406907881</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X14" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>365.0776384305107</v>
       </c>
     </row>
     <row r="15">
@@ -23576,19 +23576,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>107.6825135553325</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23627,7 +23627,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23639,10 +23639,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1648513390239543</v>
+        <v>98.73556143914</v>
       </c>
     </row>
     <row r="16">
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U17" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23810,22 +23810,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>81.56332269972104</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>72.75781833384248</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -23834,7 +23834,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23879,7 +23879,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23949,10 +23949,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23980,13 +23980,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24022,22 +24022,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>129.0278429749881</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,22 +24047,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>44.88256039483888</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24101,22 +24101,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="22">
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>128.6853625704253</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>268.906261701593</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24284,22 +24284,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>90.54881220656326</v>
       </c>
       <c r="C24" t="n">
-        <v>55.92513116551942</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24347,13 +24347,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24405,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
@@ -24414,7 +24414,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>93.55107118671071</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24457,16 +24457,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>201.2414235542941</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>365.0541832853293</v>
       </c>
     </row>
     <row r="27">
@@ -24530,10 +24530,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>31.90099500624314</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24569,25 +24569,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>10.49235770196768</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24688,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>172.5871400214005</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24724,28 +24724,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24773,7 +24773,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>101.9362516896722</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24812,22 +24812,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24879,16 +24879,16 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>93.55107118671071</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24928,16 +24928,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>158.0503210826583</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24979,10 +24979,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24995,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>62.97201105982758</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25052,13 +25052,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25128,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>371.540785507301</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25165,13 +25165,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25204,13 +25204,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>20.80116313523413</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25232,31 +25232,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>81.55953011607097</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25283,25 +25283,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>141.7938727127821</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25332,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25371,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>379.4685256062839</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25435,31 +25435,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25481,19 +25481,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>33.04728386292959</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25602,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25633,22 +25633,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>225.855928360474</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>168.4453839490745</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25672,16 +25672,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>151.843121629009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25724,7 +25724,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25757,16 +25757,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>131.3800555500806</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
         <v>46.1771387226392</v>
@@ -25775,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25842,10 +25842,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,16 +25873,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
-        <v>168.4453839490745</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25924,16 +25924,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>205.2178212748162</v>
       </c>
     </row>
     <row r="45">
@@ -25946,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26006,13 +26006,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>65.32175003622348</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>158.9298796327392</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>449813.3358977402</v>
+        <v>449813.3358977401</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>449813.3358977401</v>
+        <v>449813.3358977402</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>449813.3358977401</v>
+        <v>449813.3358977402</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>473796.0964945848</v>
+        <v>473796.0964945847</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>473796.0964945847</v>
+        <v>473796.0964945848</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>473796.0964945849</v>
+        <v>473796.0964945847</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>449813.3358977403</v>
+        <v>449813.3358977402</v>
       </c>
     </row>
   </sheetData>
@@ -26325,7 +26325,7 @@
         <v>134093.9955596919</v>
       </c>
       <c r="F2" t="n">
-        <v>134093.9955596918</v>
+        <v>134093.9955596919</v>
       </c>
       <c r="G2" t="n">
         <v>141236.5716516325</v>
@@ -26346,7 +26346,7 @@
         <v>141236.5716516325</v>
       </c>
       <c r="M2" t="n">
-        <v>141236.5716516326</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="N2" t="n">
         <v>141236.5716516325</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31909.39659410429</v>
+        <v>31909.3965941043</v>
       </c>
       <c r="C4" t="n">
         <v>31909.39659410429</v>
       </c>
       <c r="D4" t="n">
-        <v>31909.39659410429</v>
+        <v>31909.3965941043</v>
       </c>
       <c r="E4" t="n">
         <v>31909.3965941043</v>
       </c>
       <c r="F4" t="n">
-        <v>31909.39659410429</v>
+        <v>31909.3965941043</v>
       </c>
       <c r="G4" t="n">
         <v>33649.84678425771</v>
@@ -26459,7 +26459,7 @@
         <v>31909.3965941043</v>
       </c>
       <c r="P4" t="n">
-        <v>31909.3965941043</v>
+        <v>31909.39659410429</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12812.24255794972</v>
+        <v>-25450.4047128102</v>
       </c>
       <c r="C6" t="n">
-        <v>56061.51402374014</v>
+        <v>43423.35186887964</v>
       </c>
       <c r="D6" t="n">
-        <v>56061.51402374017</v>
+        <v>43423.35186887964</v>
       </c>
       <c r="E6" t="n">
-        <v>89689.11402374014</v>
+        <v>77050.95186887961</v>
       </c>
       <c r="F6" t="n">
-        <v>89689.11402374008</v>
+        <v>77050.95186887961</v>
       </c>
       <c r="G6" t="n">
-        <v>83204.01312944602</v>
+        <v>70986.00250940557</v>
       </c>
       <c r="H6" t="n">
-        <v>92933.05610361314</v>
+        <v>80715.04548357267</v>
       </c>
       <c r="I6" t="n">
-        <v>92933.05610361311</v>
+        <v>80715.0454835727</v>
       </c>
       <c r="J6" t="n">
-        <v>39160.5452134037</v>
+        <v>26942.53459336327</v>
       </c>
       <c r="K6" t="n">
-        <v>92933.05610361317</v>
+        <v>80715.04548357267</v>
       </c>
       <c r="L6" t="n">
-        <v>92933.05610361314</v>
+        <v>80715.04548357267</v>
       </c>
       <c r="M6" t="n">
-        <v>92933.0561036132</v>
+        <v>80715.0454835727</v>
       </c>
       <c r="N6" t="n">
-        <v>92933.05610361314</v>
+        <v>80715.04548357267</v>
       </c>
       <c r="O6" t="n">
-        <v>89689.11402374014</v>
+        <v>77050.95186887964</v>
       </c>
       <c r="P6" t="n">
-        <v>89689.11402374014</v>
+        <v>77050.95186887961</v>
       </c>
     </row>
   </sheetData>
@@ -34713,10 +34713,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21586406326473</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N3" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O3" t="n">
-        <v>70.5902951096252</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,7 +34941,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>147.9744062188824</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
@@ -34950,10 +34950,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35023,10 +35023,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N6" t="n">
         <v>70.5902951096252</v>
-      </c>
-      <c r="N6" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
@@ -35178,7 +35178,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M8" t="n">
         <v>205.5178444382804</v>
@@ -35187,10 +35187,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
@@ -35269,7 +35269,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>127.1185794980172</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35412,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
@@ -35424,10 +35424,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35494,13 +35494,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
       <c r="N12" t="n">
-        <v>21.52426467247106</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35509,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35737,13 +35737,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>70.5902951096252</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>226.4350751681936</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36925,10 +36925,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>91.0829537758999</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37390,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>217.7067518141195</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,10 +37627,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M39" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37639,7 +37639,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,16 +37782,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37861,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -37873,13 +37873,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>12.72573192223796</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38028,10 +38028,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O44" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M45" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="N45" t="n">
-        <v>12.72573192223801</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
